--- a/data/snb-target rate-policy rate-2000-2025.xlsx
+++ b/data/snb-target rate-policy rate-2000-2025.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyuangao/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/407a39b4e6a633f5/文档/学业/硕士hslu/Lectures Lessons Subjects/Time series analysis/project/R git/time_series_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2892866F-C468-0A45-BBDC-5D5CFEAF402C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{2892866F-C468-0A45-BBDC-5D5CFEAF402C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E32924D5-7617-E743-8512-F62794C9FDDC}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="10580" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8440" yWindow="1060" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1436,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K320"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="116" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2178,6 +2191,10 @@
       <c r="A37" t="s">
         <v>55</v>
       </c>
+      <c r="B37">
+        <f>(C37+D37)/2</f>
+        <v>3.25</v>
+      </c>
       <c r="C37">
         <v>2.75</v>
       </c>
@@ -2207,6 +2224,10 @@
       <c r="A38" t="s">
         <v>56</v>
       </c>
+      <c r="B38">
+        <f>(C38+D38)/2</f>
+        <v>2.25</v>
+      </c>
       <c r="C38">
         <v>1.75</v>
       </c>
@@ -4765,6 +4786,10 @@
       <c r="A123" t="s">
         <v>141</v>
       </c>
+      <c r="B123">
+        <f>(C123+D123)/2</f>
+        <v>2.5</v>
+      </c>
       <c r="C123">
         <v>2</v>
       </c>
@@ -4796,6 +4821,10 @@
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>142</v>
+      </c>
+      <c r="B124">
+        <f>(C124+D124)/2</f>
+        <v>1</v>
       </c>
       <c r="C124">
         <v>0.5</v>

--- a/data/snb-target rate-policy rate-2000-2025.xlsx
+++ b/data/snb-target rate-policy rate-2000-2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/407a39b4e6a633f5/文档/学业/硕士hslu/Lectures Lessons Subjects/Time series analysis/project/R git/time_series_project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhub1\RStudioProjects\time_series_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{2892866F-C468-0A45-BBDC-5D5CFEAF402C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E32924D5-7617-E743-8512-F62794C9FDDC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B274AAE-EB23-49B3-804C-D7D9D3CECD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="1060" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="10335" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -1115,7 +1115,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1131,7 +1131,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1449,58 +1449,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="116" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="116" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>26</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>73</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>75</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>85</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>86</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>88</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>89</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>90</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>91</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>99</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>100</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>101</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>102</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>104</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>105</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>106</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>107</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>108</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>109</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>110</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>111</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>112</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>113</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>114</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>115</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>116</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>118</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>119</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>120</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>121</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>122</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>123</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>124</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>125</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>126</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>127</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>128</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>129</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>130</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>131</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>132</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>133</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>134</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>135</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>136</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>137</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>138</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>139</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>140</v>
       </c>
@@ -4782,14 +4782,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>141</v>
       </c>
-      <c r="B123">
-        <f>(C123+D123)/2</f>
-        <v>2.5</v>
-      </c>
       <c r="C123">
         <v>2</v>
       </c>
@@ -4818,14 +4814,10 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>142</v>
       </c>
-      <c r="B124">
-        <f>(C124+D124)/2</f>
-        <v>1</v>
-      </c>
       <c r="C124">
         <v>0.5</v>
       </c>
@@ -4854,7 +4846,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>143</v>
       </c>
@@ -4886,7 +4878,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>144</v>
       </c>
@@ -4918,7 +4910,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>145</v>
       </c>
@@ -4950,7 +4942,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>146</v>
       </c>
@@ -4982,7 +4974,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>147</v>
       </c>
@@ -5014,7 +5006,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>148</v>
       </c>
@@ -5046,7 +5038,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>149</v>
       </c>
@@ -5078,7 +5070,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>150</v>
       </c>
@@ -5110,7 +5102,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>151</v>
       </c>
@@ -5142,7 +5134,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>152</v>
       </c>
@@ -5174,7 +5166,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>153</v>
       </c>
@@ -5206,7 +5198,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>154</v>
       </c>
@@ -5238,7 +5230,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>155</v>
       </c>
@@ -5270,7 +5262,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>156</v>
       </c>
@@ -5302,7 +5294,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>157</v>
       </c>
@@ -5334,7 +5326,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>158</v>
       </c>
@@ -5366,7 +5358,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>159</v>
       </c>
@@ -5398,7 +5390,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>160</v>
       </c>
@@ -5430,7 +5422,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>161</v>
       </c>
@@ -5462,7 +5454,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>162</v>
       </c>
@@ -5494,7 +5486,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>163</v>
       </c>
@@ -5526,7 +5518,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>164</v>
       </c>
@@ -5558,7 +5550,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>165</v>
       </c>
@@ -5590,7 +5582,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>166</v>
       </c>
@@ -5622,7 +5614,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>167</v>
       </c>
@@ -5654,7 +5646,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>168</v>
       </c>
@@ -5686,7 +5678,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>169</v>
       </c>
@@ -5718,7 +5710,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>170</v>
       </c>
@@ -5750,7 +5742,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>171</v>
       </c>
@@ -5782,7 +5774,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>172</v>
       </c>
@@ -5814,7 +5806,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>173</v>
       </c>
@@ -5846,7 +5838,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>174</v>
       </c>
@@ -5878,7 +5870,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>175</v>
       </c>
@@ -5910,7 +5902,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>176</v>
       </c>
@@ -5942,7 +5934,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>177</v>
       </c>
@@ -5974,7 +5966,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>178</v>
       </c>
@@ -6006,7 +5998,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>179</v>
       </c>
@@ -6038,7 +6030,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>180</v>
       </c>
@@ -6070,7 +6062,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>181</v>
       </c>
@@ -6102,7 +6094,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>182</v>
       </c>
@@ -6134,7 +6126,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>183</v>
       </c>
@@ -6166,7 +6158,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>184</v>
       </c>
@@ -6198,7 +6190,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>185</v>
       </c>
@@ -6230,7 +6222,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>186</v>
       </c>
@@ -6262,7 +6254,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>187</v>
       </c>
@@ -6294,7 +6286,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>188</v>
       </c>
@@ -6326,7 +6318,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>189</v>
       </c>
@@ -6358,7 +6350,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>190</v>
       </c>
@@ -6390,7 +6382,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>191</v>
       </c>
@@ -6422,7 +6414,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>192</v>
       </c>
@@ -6454,7 +6446,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>193</v>
       </c>
@@ -6486,7 +6478,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>194</v>
       </c>
@@ -6518,7 +6510,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>195</v>
       </c>
@@ -6550,7 +6542,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>196</v>
       </c>
@@ -6582,7 +6574,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>197</v>
       </c>
@@ -6614,7 +6606,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>198</v>
       </c>
@@ -6646,7 +6638,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>199</v>
       </c>
@@ -6678,7 +6670,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>200</v>
       </c>
@@ -6710,7 +6702,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>201</v>
       </c>
@@ -6742,7 +6734,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>202</v>
       </c>
@@ -6774,7 +6766,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>203</v>
       </c>
@@ -6806,7 +6798,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>204</v>
       </c>
@@ -6838,7 +6830,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>205</v>
       </c>
@@ -6870,7 +6862,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>206</v>
       </c>
@@ -6902,7 +6894,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>207</v>
       </c>
@@ -6934,7 +6926,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>208</v>
       </c>
@@ -6966,7 +6958,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>209</v>
       </c>
@@ -6998,7 +6990,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>210</v>
       </c>
@@ -7030,7 +7022,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>211</v>
       </c>
@@ -7062,7 +7054,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>212</v>
       </c>
@@ -7094,7 +7086,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>213</v>
       </c>
@@ -7126,7 +7118,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>214</v>
       </c>
@@ -7158,7 +7150,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>215</v>
       </c>
@@ -7190,7 +7182,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>216</v>
       </c>
@@ -7222,7 +7214,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>217</v>
       </c>
@@ -7254,7 +7246,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>218</v>
       </c>
@@ -7286,7 +7278,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>219</v>
       </c>
@@ -7318,7 +7310,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>220</v>
       </c>
@@ -7350,7 +7342,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>221</v>
       </c>
@@ -7382,7 +7374,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>222</v>
       </c>
@@ -7414,7 +7406,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>223</v>
       </c>
@@ -7446,7 +7438,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>224</v>
       </c>
@@ -7478,7 +7470,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>225</v>
       </c>
@@ -7510,7 +7502,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>226</v>
       </c>
@@ -7542,7 +7534,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>227</v>
       </c>
@@ -7574,7 +7566,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>228</v>
       </c>
@@ -7606,7 +7598,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>229</v>
       </c>
@@ -7638,7 +7630,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>230</v>
       </c>
@@ -7670,7 +7662,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>231</v>
       </c>
@@ -7702,7 +7694,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>232</v>
       </c>
@@ -7734,7 +7726,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>233</v>
       </c>
@@ -7766,7 +7758,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>234</v>
       </c>
@@ -7798,7 +7790,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>235</v>
       </c>
@@ -7830,7 +7822,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>236</v>
       </c>
@@ -7862,7 +7854,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>237</v>
       </c>
@@ -7894,7 +7886,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>238</v>
       </c>
@@ -7926,7 +7918,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>239</v>
       </c>
@@ -7958,7 +7950,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>240</v>
       </c>
@@ -7990,7 +7982,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>241</v>
       </c>
@@ -8022,7 +8014,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>242</v>
       </c>
@@ -8054,7 +8046,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>243</v>
       </c>
@@ -8086,7 +8078,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>244</v>
       </c>
@@ -8118,7 +8110,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>245</v>
       </c>
@@ -8150,7 +8142,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>246</v>
       </c>
@@ -8182,7 +8174,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>247</v>
       </c>
@@ -8214,7 +8206,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>248</v>
       </c>
@@ -8246,7 +8238,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>249</v>
       </c>
@@ -8278,7 +8270,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>250</v>
       </c>
@@ -8310,7 +8302,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>251</v>
       </c>
@@ -8342,7 +8334,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>252</v>
       </c>
@@ -8374,7 +8366,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>253</v>
       </c>
@@ -8406,7 +8398,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>254</v>
       </c>
@@ -8438,7 +8430,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>255</v>
       </c>
@@ -8470,7 +8462,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>256</v>
       </c>
@@ -8502,7 +8494,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>257</v>
       </c>
@@ -8534,7 +8526,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>258</v>
       </c>
@@ -8566,7 +8558,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>259</v>
       </c>
@@ -8598,7 +8590,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>260</v>
       </c>
@@ -8630,7 +8622,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>261</v>
       </c>
@@ -8662,7 +8654,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>262</v>
       </c>
@@ -8694,7 +8686,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>263</v>
       </c>
@@ -8726,7 +8718,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>264</v>
       </c>
@@ -8758,7 +8750,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>265</v>
       </c>
@@ -8790,7 +8782,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>266</v>
       </c>
@@ -8822,7 +8814,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>267</v>
       </c>
@@ -8854,7 +8846,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>268</v>
       </c>
@@ -8886,7 +8878,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>269</v>
       </c>
@@ -8915,7 +8907,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>270</v>
       </c>
@@ -8944,7 +8936,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>271</v>
       </c>
@@ -8973,7 +8965,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>272</v>
       </c>
@@ -9002,7 +8994,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>273</v>
       </c>
@@ -9031,7 +9023,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>274</v>
       </c>
@@ -9060,7 +9052,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>275</v>
       </c>
@@ -9089,7 +9081,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>276</v>
       </c>
@@ -9118,7 +9110,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>277</v>
       </c>
@@ -9147,7 +9139,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>278</v>
       </c>
@@ -9176,7 +9168,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>279</v>
       </c>
@@ -9205,7 +9197,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>280</v>
       </c>
@@ -9234,7 +9226,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>281</v>
       </c>
@@ -9263,7 +9255,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>282</v>
       </c>
@@ -9292,7 +9284,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>283</v>
       </c>
@@ -9321,7 +9313,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>284</v>
       </c>
@@ -9350,7 +9342,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>285</v>
       </c>
@@ -9379,7 +9371,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>286</v>
       </c>
@@ -9408,7 +9400,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>287</v>
       </c>
@@ -9437,7 +9429,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>288</v>
       </c>
@@ -9466,7 +9458,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>289</v>
       </c>
@@ -9495,7 +9487,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>290</v>
       </c>
@@ -9524,7 +9516,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>291</v>
       </c>
@@ -9553,7 +9545,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>292</v>
       </c>
@@ -9582,7 +9574,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>293</v>
       </c>
@@ -9611,7 +9603,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>294</v>
       </c>
@@ -9640,7 +9632,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>295</v>
       </c>
@@ -9669,7 +9661,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>296</v>
       </c>
@@ -9698,7 +9690,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>297</v>
       </c>
@@ -9727,7 +9719,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>298</v>
       </c>
@@ -9756,7 +9748,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>299</v>
       </c>
@@ -9785,7 +9777,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>300</v>
       </c>
@@ -9814,7 +9806,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>301</v>
       </c>
@@ -9843,7 +9835,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>302</v>
       </c>
@@ -9872,7 +9864,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>303</v>
       </c>
@@ -9901,7 +9893,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>304</v>
       </c>
@@ -9930,7 +9922,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>305</v>
       </c>
@@ -9959,7 +9951,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>306</v>
       </c>
@@ -9988,7 +9980,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>307</v>
       </c>
@@ -10017,7 +10009,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>308</v>
       </c>
@@ -10046,7 +10038,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>309</v>
       </c>
@@ -10075,7 +10067,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>310</v>
       </c>
@@ -10104,7 +10096,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>311</v>
       </c>
@@ -10133,7 +10125,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>312</v>
       </c>
@@ -10162,7 +10154,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>313</v>
       </c>
@@ -10191,7 +10183,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>314</v>
       </c>
@@ -10220,7 +10212,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>315</v>
       </c>
@@ -10249,7 +10241,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>316</v>
       </c>
@@ -10278,7 +10270,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>317</v>
       </c>
@@ -10307,7 +10299,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>318</v>
       </c>
@@ -10336,7 +10328,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>319</v>
       </c>
@@ -10365,7 +10357,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>320</v>
       </c>
@@ -10394,7 +10386,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>321</v>
       </c>
@@ -10423,7 +10415,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>322</v>
       </c>
@@ -10452,7 +10444,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>323</v>
       </c>
@@ -10481,7 +10473,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>324</v>
       </c>
@@ -10510,7 +10502,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>325</v>
       </c>
@@ -10539,7 +10531,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>326</v>
       </c>
@@ -10568,7 +10560,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>327</v>
       </c>
@@ -10597,7 +10589,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>328</v>
       </c>
@@ -10626,7 +10618,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>329</v>
       </c>
@@ -10655,7 +10647,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>330</v>
       </c>
@@ -10684,7 +10676,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>331</v>
       </c>
@@ -10713,7 +10705,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>332</v>
       </c>
@@ -10742,7 +10734,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>333</v>
       </c>
@@ -10771,7 +10763,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>334</v>
       </c>
@@ -10800,7 +10792,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>335</v>
       </c>
@@ -10829,7 +10821,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>336</v>
       </c>
@@ -10858,7 +10850,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>337</v>
       </c>
@@ -10887,7 +10879,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>338</v>
       </c>

--- a/data/snb-target rate-policy rate-2000-2025.xlsx
+++ b/data/snb-target rate-policy rate-2000-2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhub1\RStudioProjects\time_series_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B274AAE-EB23-49B3-804C-D7D9D3CECD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4492ABFC-8068-4DFA-A8EE-15020D2DCD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="10335" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1449,9 +1449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="116" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2191,10 +2189,6 @@
       <c r="A37" t="s">
         <v>55</v>
       </c>
-      <c r="B37">
-        <f>(C37+D37)/2</f>
-        <v>3.25</v>
-      </c>
       <c r="C37">
         <v>2.75</v>
       </c>
@@ -2223,10 +2217,6 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
-      </c>
-      <c r="B38">
-        <f>(C38+D38)/2</f>
-        <v>2.25</v>
       </c>
       <c r="C38">
         <v>1.75</v>
